--- a/SW2/思考実験.xlsx
+++ b/SW2/思考実験.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qu365-my.sharepoint.com/personal/yanagi_taka_291_s_kyushu-u_ac_jp/Documents/2022年度後期/電気情報工学実験Ⅱ・Ⅲ/schoolpc2/SW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{54B87E7E-FD8B-4757-A985-708681FAA3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0429E9DA-A19B-44C7-97E4-DFE867380701}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{54B87E7E-FD8B-4757-A985-708681FAA3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06680936-9391-4812-A9C2-112AFB018C84}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A86A3C03-8900-4E48-A91C-2E90C8515FAB}"/>
   </bookViews>
@@ -34,31 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>初期状態</t>
-    <rPh sb="0" eb="4">
-      <t>ショキジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>ready</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>semaphore1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>semaphore2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キュー状態</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -69,16 +47,272 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2,3,4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイマ割り込み</t>
-    <rPh sb="3" eb="4">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>queue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>semaphore0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>semaphore1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set_task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1(task1-a)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2(task2-a)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3(task3-a)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task2が資源0確保</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task3が資源0のキューへ</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1(task1-ｂ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task1が資源0のキューへ</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマ
+単位時間</t>
+    <rPh sb="4" eb="8">
+      <t>タンイジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3(task3-a), 1(task1-b)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1(task1-b)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task2が資源0解放</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2(task2-b)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task3が資源0解放</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task2が資源1確保</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task1が資源0解放</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3(task3-b)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task3(資源0利用)</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task2(資源1利用)</t>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task3(資源利用無し)</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task1(資源利用無し)</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task1が資源1のキューへ</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3(task3-c)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1(task1-b),3(task3-c)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task3が資源1のキューへ</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task2が資源1解放</t>
+    <rPh sb="9" eb="11">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task1(資源1利用)</t>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task1が資源1解放</t>
+    <rPh sb="9" eb="11">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task2(資源利用無し)</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2(task2-c)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task3が資源1解放</t>
+    <rPh sb="6" eb="8">
+      <t>シゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -87,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +334,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -126,15 +368,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,66 +701,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD8178F-A30F-490A-B1BD-09C7F01634CD}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="6" width="17.296875" style="2"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B2"/>
-      <c r="C2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <f>A4+1</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <f t="shared" ref="A6:A23" si="0">A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
+  <mergeCells count="6">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
